--- a/data/Maps (2022, 118th Congress).xlsx
+++ b/data/Maps (2022, 118th Congress).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/dev/method_eval/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A40B35C-633B-024F-BD7D-F35178D26C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B53B4AC-E58C-7048-8F36-4F5F789CC7DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9080" yWindow="2880" windowWidth="27640" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -702,10 +702,10 @@
   <dimension ref="A1:H997"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G35" sqref="G35"/>
+      <selection pane="bottomRight" activeCell="F51" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9338,5 +9338,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>